--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3918796.994583204</v>
+        <v>3914491.278207134</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7490416.032848271</v>
+        <v>7490416.03284827</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>46.88808196732292</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>39.01104463634053</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>99.88088673627541</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>202.2549534861353</v>
       </c>
       <c r="H5" t="n">
-        <v>178.3629626184778</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>70.80276983270103</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>70.16758029820757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>23.99903450546585</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>16.54763824361756</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>95.10391318383952</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>184.6902077947043</v>
       </c>
     </row>
     <row r="11">
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576167</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>127.996768116958</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>84.53948348634594</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>20.88994825141578</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33.82351723687695</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>170.9457618790577</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>18.50276072357073</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>168.4805514670954</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>82.47290449300864</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>81.11398998229735</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>173.2052365248857</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>93.40444476188321</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3909,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>19.91555826189057</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4149,10 +4149,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>39.39795577639067</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1993.54646147304</v>
+        <v>1392.984777118936</v>
       </c>
       <c r="C2" t="n">
-        <v>1993.54646147304</v>
+        <v>1024.022260178525</v>
       </c>
       <c r="D2" t="n">
-        <v>1635.28076286629</v>
+        <v>665.7565615717742</v>
       </c>
       <c r="E2" t="n">
-        <v>1249.492510268045</v>
+        <v>665.7565615717742</v>
       </c>
       <c r="F2" t="n">
-        <v>838.5066054784379</v>
+        <v>254.7706567821667</v>
       </c>
       <c r="G2" t="n">
-        <v>420.5427973766248</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>93.34807741262762</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>1779.584617183058</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4418,16 +4418,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>470.7225141620388</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>470.7225141620388</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>470.7225141620388</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>470.7225141620388</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>323.8325666641284</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>154.8327664024608</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>154.8327664024608</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>470.7225141620388</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>470.7225141620388</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1971.274048960885</v>
+        <v>1336.435086552838</v>
       </c>
       <c r="C5" t="n">
-        <v>1602.311532020473</v>
+        <v>1336.435086552838</v>
       </c>
       <c r="D5" t="n">
-        <v>1602.311532020473</v>
+        <v>978.1693879460875</v>
       </c>
       <c r="E5" t="n">
-        <v>1216.523279422229</v>
+        <v>592.3811353478432</v>
       </c>
       <c r="F5" t="n">
-        <v>805.5373746326211</v>
+        <v>585.4356345986397</v>
       </c>
       <c r="G5" t="n">
-        <v>387.573566530808</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1971.274048960885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1971.274048960885</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>1971.274048960885</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y5" t="n">
-        <v>1971.274048960885</v>
+        <v>1723.03492661696</v>
       </c>
     </row>
     <row r="6">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>261.1482364572794</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>261.1482364572794</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1688.895271141336</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C8" t="n">
-        <v>1319.932754200924</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D8" t="n">
-        <v>1319.932754200924</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E8" t="n">
-        <v>1319.932754200924</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F8" t="n">
-        <v>908.9468494113166</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>372.1660970478549</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>325.1460354086931</v>
+        <v>192.4307036906658</v>
       </c>
       <c r="L8" t="n">
-        <v>535.0521211835593</v>
+        <v>745.243961936865</v>
       </c>
       <c r="M8" t="n">
-        <v>1166.769932166871</v>
+        <v>1376.961772920177</v>
       </c>
       <c r="N8" t="n">
-        <v>1794.077600226718</v>
+        <v>2004.269440980023</v>
       </c>
       <c r="O8" t="n">
-        <v>2341.238804993795</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2680.434304913558</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.634443181269</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.634443181269</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.634443181269</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.634443181269</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.634443181269</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>2075.495111205458</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="9">
@@ -4889,19 +4889,19 @@
         <v>121.5508014837215</v>
       </c>
       <c r="L9" t="n">
-        <v>625.9123413498401</v>
+        <v>258.7803994994155</v>
       </c>
       <c r="M9" t="n">
-        <v>1266.457690816945</v>
+        <v>899.3257489665201</v>
       </c>
       <c r="N9" t="n">
-        <v>1934.002090843955</v>
+        <v>1566.87014899353</v>
       </c>
       <c r="O9" t="n">
-        <v>2483.438099596678</v>
+        <v>2116.306157746253</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2540.27392622709</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>685.6734330002731</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>516.7372500723662</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>366.6206106600305</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>218.7075170776374</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>957.8131045081541</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>750.3728197605594</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>524.7436230729244</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>235.5914466506042</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>235.5914466506042</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>235.5914466506042</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>235.5914466506042</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>867.3218978305129</v>
       </c>
     </row>
     <row r="11">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5074,19 +5074,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5129,19 +5129,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048574</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>594.8179559048574</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>446.9048623224643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5275,28 +5275,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.9745311434716</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>701.0383482155647</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>550.921708803229</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>403.0086152208358</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>403.0086152208358</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258106</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.822296052219</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.405126015259</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.415575117241</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.622995973711</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5597,25 +5597,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>323.8164599824514</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,10 +5749,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5949,13 +5949,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5986,16 +5986,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.7825789706076</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C25" t="n">
-        <v>391.8463960427007</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1191.213173842395</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X25" t="n">
-        <v>963.2236229443774</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.4310438008473</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="26">
@@ -6211,10 +6211,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,16 +6223,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
         <v>2319.799627685893</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327652</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>763.7541388327652</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>613.6374994204294</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>465.7244058380363</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F31" t="n">
-        <v>318.8344583401259</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806535</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630049</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.311647517213</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2252.2213777565</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>726.955532171245</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>558.0193492433381</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1129.396576145015</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.6039970014847</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,40 +6925,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6967,19 +6967,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4515.878368030022</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4296.276903052963</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4296.276903052963</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>4041.592414847077</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3752.175244810116</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3524.185693912098</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,10 +7162,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7174,10 +7174,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7204,7 +7204,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>867.8220324314351</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M42" t="n">
-        <v>1465.200520057987</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N42" t="n">
-        <v>2092.798483612594</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474262</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>113.9333885650331</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7627,25 +7627,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
@@ -7669,28 +7669,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3260.450525729772</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>3091.514342801865</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>2941.39770338953</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>2793.484609807137</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>2646.594662309226</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>4507.978318053498</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>4288.376853076439</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>3999.301626420637</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>3999.301626420637</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>3709.884456383676</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>3481.894905485659</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>3442.098990560012</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8233,7 +8233,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>35.04072454780376</v>
       </c>
       <c r="L8" t="n">
-        <v>71.2903332662757</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8473,7 +8473,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>21.63976862165688</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>74.01734528517885</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10123,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>17.42427990597321</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>80.9846548059229</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>127.7255247667966</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>146.0084629450603</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>46.45968844823054</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>268.0202376130202</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>83.0512337992602</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>144.5956654067398</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>7.82104947675893</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25836,7 +25836,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>179.1866975757041</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>630418.1664798534</v>
+        <v>630418.1664798533</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>630418.1664798534</v>
+        <v>630418.1664798533</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>630418.1664798534</v>
+        <v>630418.1664798533</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977555</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="F2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="H2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="G2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="H2" t="n">
-        <v>786967.9346977556</v>
-      </c>
       <c r="I2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="J2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="K2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="L2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="M2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="N2" t="n">
         <v>786967.934697756</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.9346977558</v>
       </c>
       <c r="O2" t="n">
         <v>786967.9346977561</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977557</v>
       </c>
     </row>
     <row r="3">
@@ -26371,22 +26371,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
         <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26429,37 +26429,37 @@
         <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="I4" t="n">
         <v>5677.536566682745</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5677.536566682718</v>
       </c>
       <c r="J4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682724</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="O4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="O4" t="n">
-        <v>5677.536566682744</v>
-      </c>
       <c r="P4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-82233.64712331115</v>
+        <v>-82233.64712331092</v>
       </c>
       <c r="C6" t="n">
         <v>507734.2320912335</v>
       </c>
       <c r="D6" t="n">
-        <v>351930.4259974385</v>
+        <v>351930.4259974387</v>
       </c>
       <c r="E6" t="n">
-        <v>-90884.82307364074</v>
+        <v>-91232.20232799755</v>
       </c>
       <c r="F6" t="n">
-        <v>680167.8683071657</v>
+        <v>679820.4890528091</v>
       </c>
       <c r="G6" t="n">
-        <v>680167.8683071664</v>
+        <v>679820.4890528086</v>
       </c>
       <c r="H6" t="n">
-        <v>680167.8683071658</v>
+        <v>679820.4890528091</v>
       </c>
       <c r="I6" t="n">
-        <v>680167.8683071662</v>
+        <v>679820.4890528091</v>
       </c>
       <c r="J6" t="n">
-        <v>503744.6491145729</v>
+        <v>503397.2698602159</v>
       </c>
       <c r="K6" t="n">
-        <v>680167.8683071663</v>
+        <v>679820.4890528091</v>
       </c>
       <c r="L6" t="n">
-        <v>680167.8683071662</v>
+        <v>679820.489052809</v>
       </c>
       <c r="M6" t="n">
-        <v>555959.3575991077</v>
+        <v>555611.9783447502</v>
       </c>
       <c r="N6" t="n">
-        <v>680167.868307166</v>
+        <v>679820.4890528092</v>
       </c>
       <c r="O6" t="n">
-        <v>680167.8683071664</v>
+        <v>679820.4890528093</v>
       </c>
       <c r="P6" t="n">
-        <v>680167.8683071658</v>
+        <v>679820.489052809</v>
       </c>
     </row>
   </sheetData>
@@ -26965,22 +26965,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>366.8960880534721</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>112.9202716085207</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>35.08473505606284</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>211.5292165346597</v>
       </c>
       <c r="H5" t="n">
-        <v>145.5598101458793</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>96.50703242634988</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>148.4170730538872</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>388.917869440471</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>138.1052488845226</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28034,7 +28034,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>34.06926848395179</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>33.89444555739044</v>
       </c>
     </row>
     <row r="11">
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31849,13 +31849,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>379.4203056753705</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31864,7 +31864,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511227</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,10 +32557,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32569,10 +32569,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>583.1096135868572</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>208.6096528357818</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>370.9642309107744</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>400.8433522134838</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>369.1789913099997</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34207,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>431.9220107744075</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34234,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,22 +34444,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>379.8551982710416</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>265.5442652399247</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34468,10 +34468,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
         <v>297.2230414343419</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>118.4378503807253</v>
       </c>
       <c r="L8" t="n">
-        <v>212.0263492675415</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
@@ -35193,7 +35193,7 @@
         <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
@@ -35269,10 +35269,10 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>131.427271174484</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>96.98395255990307</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35497,13 +35497,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>237.2862717533522</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35512,7 +35512,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,10 +36205,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36217,10 +36217,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>440.9755796648388</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>66.47561891376348</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>228.3679864663299</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>266.8689447991536</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,19 +37627,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>293.3676309945333</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>242.0137592966826</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>134.2025531565914</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38116,10 +38116,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3914491.278207134</v>
+        <v>3916251.808509919</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.72683757586846</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>202.2549534861353</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>188.4707834653408</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>70.80276983270103</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>59.6638564154455</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>23.99903450546585</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>52.97408661271449</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.6902077947043</v>
+        <v>202.3860496764733</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.876045741713</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576167</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>40.96105405076475</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2487,10 +2487,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>70.04554881124324</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2529,16 +2529,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>18.50276072357073</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>126.6321535627876</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U46" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4418,7 +4418,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1336.435086552838</v>
+        <v>1146.060557799969</v>
       </c>
       <c r="C5" t="n">
-        <v>1336.435086552838</v>
+        <v>1146.060557799969</v>
       </c>
       <c r="D5" t="n">
-        <v>978.1693879460875</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>592.3811353478432</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>585.4356345986397</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2275.568385110017</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2275.568385110017</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2275.568385110017</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>1922.799729839902</v>
       </c>
       <c r="X5" t="n">
-        <v>2113.174258592771</v>
+        <v>1922.799729839902</v>
       </c>
       <c r="Y5" t="n">
-        <v>1723.03492661696</v>
+        <v>1532.660397864091</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4652,19 +4652,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940985</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117053</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F7" t="n">
-        <v>283.209303713795</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1920.409918978289</v>
+        <v>1764.194881475117</v>
       </c>
       <c r="C8" t="n">
-        <v>1551.447402037877</v>
+        <v>1395.232364534706</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.181703431127</v>
+        <v>1036.966665927955</v>
       </c>
       <c r="E8" t="n">
-        <v>807.3934508328825</v>
+        <v>651.178413329711</v>
       </c>
       <c r="F8" t="n">
-        <v>396.407546043275</v>
+        <v>240.1925085401035</v>
       </c>
       <c r="G8" t="n">
-        <v>372.1660970478549</v>
+        <v>227.145130816935</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1281.162666244968</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2022.658083904028</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.934053515051</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.934053515051</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.934053515051</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.934053515051</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.934053515051</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.934053515051</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>2150.794721539239</v>
       </c>
     </row>
     <row r="9">
@@ -4871,37 +4871,37 @@
         <v>484.7397722991365</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260214</v>
+        <v>338.2052143260215</v>
       </c>
       <c r="G9" t="n">
         <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>99.84783883004798</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>121.5508014837215</v>
       </c>
       <c r="L9" t="n">
-        <v>258.7803994994155</v>
+        <v>332.0575713317423</v>
       </c>
       <c r="M9" t="n">
-        <v>899.3257489665201</v>
+        <v>972.602920798847</v>
       </c>
       <c r="N9" t="n">
-        <v>1566.87014899353</v>
+        <v>1640.147320825857</v>
       </c>
       <c r="O9" t="n">
-        <v>2116.306157746253</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P9" t="n">
-        <v>2540.27392622709</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>685.6734330002731</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>516.7372500723662</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>366.6206106600305</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>218.7075170776374</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -5007,7 +5007,7 @@
         <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>867.3218978305129</v>
+        <v>849.4473100711502</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5129,19 +5129,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>1057.95525898292</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>889.0190760550126</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>738.9024366426769</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>590.9893430602838</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>444.0993955623734</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>276.9032962772533</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>135.1914651194514</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5296,31 +5296,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L15" t="n">
         <v>776.1751066403293</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5527,10 +5527,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5542,13 +5542,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5606,10 +5606,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517213</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5749,10 +5749,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6077,10 +6077,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>784.5811134804959</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C25" t="n">
-        <v>615.644930552589</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D25" t="n">
-        <v>465.5282911402533</v>
+        <v>703.4774700326898</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578602</v>
+        <v>555.5643764502967</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578602</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W25" t="n">
-        <v>1415.011708352283</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X25" t="n">
-        <v>1187.022157454266</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y25" t="n">
-        <v>966.2295783107356</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="26">
@@ -6208,7 +6208,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6217,7 +6217,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6226,19 +6226,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6460,25 +6460,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>244.7670222746419</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6700,22 +6700,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6785,16 +6785,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
         <v>402.7245934908939</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7201,10 +7201,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7265,10 +7265,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7396,19 +7396,19 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7426,22 +7426,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466572</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7496,16 +7496,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7557,16 +7557,16 @@
         <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7642,28 +7642,28 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7721,7 +7721,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
         <v>95.58405025273903</v>
@@ -7730,19 +7730,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8233,7 +8233,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780376</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>312.2066704284453</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8537,13 +8537,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>74.01734528517866</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>473.6238973478237</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>74.01734528517885</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>40.30478226780077</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24375,10 +24375,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>75.37549921168801</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24417,16 +24417,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>268.0202376130202</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U46" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>630418.1664798533</v>
+        <v>630418.1664798534</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>630418.1664798533</v>
+        <v>630418.1664798534</v>
       </c>
     </row>
     <row r="10">
@@ -26319,10 +26319,10 @@
         <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977554</v>
       </c>
       <c r="F2" t="n">
         <v>786967.9346977558</v>
@@ -26337,25 +26337,25 @@
         <v>786967.9346977558</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="K2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="L2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.9346977555</v>
+        <v>786967.9346977562</v>
       </c>
       <c r="N2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26423,16 +26423,16 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682663</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682733</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682775</v>
       </c>
       <c r="H4" t="n">
         <v>5677.536566682744</v>
@@ -26447,19 +26447,19 @@
         <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="N4" t="n">
+        <v>5677.536566682797</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5677.536566682806</v>
+      </c>
+      <c r="P4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>87562.0451708468</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-82233.64712331092</v>
+        <v>-82233.64712331104</v>
       </c>
       <c r="C6" t="n">
         <v>507734.2320912335</v>
       </c>
       <c r="D6" t="n">
-        <v>351930.4259974387</v>
+        <v>351930.4259974385</v>
       </c>
       <c r="E6" t="n">
-        <v>-91232.20232799755</v>
+        <v>-90919.5609990766</v>
       </c>
       <c r="F6" t="n">
-        <v>679820.4890528091</v>
+        <v>680133.1303817304</v>
       </c>
       <c r="G6" t="n">
-        <v>679820.4890528086</v>
+        <v>680133.1303817304</v>
       </c>
       <c r="H6" t="n">
-        <v>679820.4890528091</v>
+        <v>680133.1303817303</v>
       </c>
       <c r="I6" t="n">
-        <v>679820.4890528091</v>
+        <v>680133.1303817304</v>
       </c>
       <c r="J6" t="n">
-        <v>503397.2698602159</v>
+        <v>503709.9111891374</v>
       </c>
       <c r="K6" t="n">
-        <v>679820.4890528091</v>
+        <v>680133.13038173</v>
       </c>
       <c r="L6" t="n">
-        <v>679820.489052809</v>
+        <v>680133.1303817304</v>
       </c>
       <c r="M6" t="n">
-        <v>555611.9783447502</v>
+        <v>555924.6196736722</v>
       </c>
       <c r="N6" t="n">
-        <v>679820.4890528092</v>
+        <v>680133.1303817306</v>
       </c>
       <c r="O6" t="n">
-        <v>679820.4890528093</v>
+        <v>680133.1303817303</v>
       </c>
       <c r="P6" t="n">
-        <v>679820.489052809</v>
+        <v>680133.1303817303</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26792,16 +26792,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,26 +26968,26 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.1051426060688</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>211.5292165346597</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>27.97753689231698</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>96.50703242634988</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>96.50703242634964</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>388.917869440471</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>262.0667974625011</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -28034,7 +28034,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>33.89444555739044</v>
+        <v>16.19860367562146</v>
       </c>
     </row>
     <row r="11">
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-1.54335762560769e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28140,13 +28140,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28326,10 +28326,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28578,10 +28578,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,10 +28614,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286971</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>173.8200325543357</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>340.4395077511227</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32797,13 +32797,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>444.2274915982894</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33505,7 +33505,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>246.9596973201446</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33517,7 +33517,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33985,13 +33985,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34216,7 +34216,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>246.9596973201446</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34228,7 +34228,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,22 +34450,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>379.8551982710416</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,16 +34786,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807253</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>452.9426864297112</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35257,13 +35257,13 @@
         <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>212.6331008565867</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35272,7 +35272,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>96.98395255990307</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066788</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>35.97859357997668</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>197.8432633066783</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36445,13 +36445,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>302.093457676271</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37153,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>108.4053175402704</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37165,7 +37165,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37633,13 +37633,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>108.4053175402704</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37876,7 +37876,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>242.0137592966826</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
